--- a/docs/comparaison-deviation.xlsx
+++ b/docs/comparaison-deviation.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\ProjetDev\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{D6E0BCC6-5056-4DB6-BD16-242267C96ED5}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11484" windowHeight="5604"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11484" windowHeight="5604" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -86,7 +87,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0000000000"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
@@ -120,10 +121,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -158,7 +163,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Image 1"/>
+        <xdr:cNvPr id="2" name="Image 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -196,7 +207,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Image 2"/>
+        <xdr:cNvPr id="3" name="Image 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -484,11 +501,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:D49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32:C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -552,7 +569,7 @@
       <c r="A7" t="s">
         <v>0</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="1">
         <v>0.81561696859940302</v>
       </c>
       <c r="C7">
@@ -591,6 +608,7 @@
       <c r="C12">
         <v>-0.66</v>
       </c>
+      <c r="D12" s="3"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
@@ -632,7 +650,7 @@
       <c r="A19" t="s">
         <v>11</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B19" s="4">
         <f>B17*200/180</f>
         <v>1.711111111111111</v>
       </c>
